--- a/biology/Médecine/Temsirolimus/Temsirolimus.xlsx
+++ b/biology/Médecine/Temsirolimus/Temsirolimus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le temsirolimus est un médicament utilisé comme inhibiteur de la mammalian target of rapamycin (mTor). 
 </t>
@@ -511,10 +523,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le cancer du rein métastatique, le temsirolimus s'avère être plus efficace, en particulier en termes de mortalité, par rapport à l’interféron[1]. 
-Dans le lymphome du manteau, le temsirolimus obtient une réponse, essentiellement partielle entre 20[2] et 40 % des cas[3]. Il est cependant moins efficace que l'ibrutinib[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cancer du rein métastatique, le temsirolimus s'avère être plus efficace, en particulier en termes de mortalité, par rapport à l’interféron. 
+Dans le lymphome du manteau, le temsirolimus obtient une réponse, essentiellement partielle entre 20 et 40 % des cas. Il est cependant moins efficace que l'ibrutinib.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a une toxicité hématologique dans près de la moitié des cas[3], augmentant avec les doses utilisée[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a une toxicité hématologique dans près de la moitié des cas, augmentant avec les doses utilisée.
 </t>
         </is>
       </c>
